--- a/data/trans_bre/P16A08-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.664508046067306</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-2.272496332786655</v>
+        <v>-2.272496332786656</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.3169749918939432</v>
@@ -649,7 +649,7 @@
         <v>0.1728672516777645</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.4380745835587371</v>
+        <v>-0.4380745835587372</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.252852976282204</v>
+        <v>-3.467535566577736</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.097606623146173</v>
+        <v>-0.6658081545474943</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.596142902193677</v>
+        <v>-2.891340612019129</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.013656455884061</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>-0.8882175789829496</v>
-      </c>
+        <v>-6.416904351407998</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.2380967548102507</v>
+        <v>-0.1588606423294515</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5244595452212569</v>
+        <v>-0.5756529556881069</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.7573673180002538</v>
+        <v>-0.7958300876410956</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.531438079528835</v>
+        <v>1.482378827360621</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.124622531283248</v>
+        <v>7.104990300353997</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.247796995308339</v>
+        <v>4.009203635850677</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9968504292014359</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>1.728307876747411</v>
-      </c>
+        <v>0.8602135627280816</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>3.186245776420939</v>
+        <v>3.086782101177229</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.806690074685305</v>
+        <v>1.757220197588391</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5416751043782873</v>
+        <v>0.4268831251659104</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +733,7 @@
         <v>4.094854814950926</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7081565980988247</v>
+        <v>0.7081565980988254</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.842066735921585</v>
@@ -749,7 +745,7 @@
         <v>1.44266938068932</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1542788642763587</v>
+        <v>0.1542788642763589</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.401407574392197</v>
+        <v>1.680482402109434</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.488245022863941</v>
+        <v>-2.669848039575708</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.279625819874287</v>
+        <v>1.594957945906847</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.422428313663625</v>
+        <v>-2.636632240629181</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.325123114508017</v>
+        <v>0.3630206241416669</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3034517040616065</v>
+        <v>-0.3403561862955349</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2653724525135197</v>
+        <v>0.3606265342528007</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3757089090984448</v>
+        <v>-0.3896041905658863</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.779177595631769</v>
+        <v>6.672530884373043</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.128279502070567</v>
+        <v>4.156275442053292</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.652827423790312</v>
+        <v>6.894030670897451</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.388209846786296</v>
+        <v>3.258293831527237</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.180465030614831</v>
+        <v>4.96778832053743</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9004230627640618</v>
+        <v>0.9136367152872468</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.558358060962367</v>
+        <v>4.101613852585356</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.198038694118465</v>
+        <v>1.137681721360985</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +833,7 @@
         <v>0.2094784799544447</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.7931746910841787</v>
+        <v>-0.793174691084179</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>2.260313210573821</v>
@@ -849,7 +845,7 @@
         <v>0.07383793520155132</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2607800974129392</v>
+        <v>-0.2607800974129393</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +856,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1004239105633849</v>
+        <v>0.03237509821868076</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.14553694893862</v>
+        <v>2.21990628707416</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.484795760682807</v>
+        <v>-2.345022511828521</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.727731545067852</v>
+        <v>-3.66033918815507</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5264309307720362</v>
+        <v>-0.607357011917274</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.511309326987525</v>
+        <v>0.4720273478825813</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6115635561241385</v>
+        <v>-0.5906185251924534</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7068492495258069</v>
+        <v>-0.7078033505048121</v>
       </c>
     </row>
     <row r="12">
@@ -892,26 +888,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.872262293980968</v>
+        <v>4.041683846173385</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.501280909991012</v>
+        <v>8.661278284238906</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.614377257611421</v>
+        <v>2.806773670920907</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.251471619233423</v>
+        <v>1.315856287949114</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>7.696068410551148</v>
+        <v>7.647088872694791</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.797832630732774</v>
+        <v>1.89997227014468</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9404180722562526</v>
+        <v>0.9591689634052304</v>
       </c>
     </row>
     <row r="13">
@@ -958,28 +954,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.646498946525927</v>
+        <v>-1.812748262064512</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.230063502035596</v>
+        <v>-0.3139613237986885</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.233604831127654</v>
+        <v>-1.052789571770242</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.996216215532117</v>
+        <v>-1.700651139328988</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.450060605277086</v>
+        <v>-0.5418668607973608</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1538091153102077</v>
+        <v>-0.2014879632308397</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2393125586462533</v>
+        <v>-0.2280955273004666</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6135893792640277</v>
+        <v>-0.5614279786156592</v>
       </c>
     </row>
     <row r="15">
@@ -990,28 +986,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.404050594875208</v>
+        <v>3.477711391041148</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.656985584724411</v>
+        <v>4.488119654280254</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.031045352717294</v>
+        <v>5.78381731199952</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.414790747042766</v>
+        <v>3.054090980777508</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.461482964092548</v>
+        <v>2.578798016756831</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.828096634600454</v>
+        <v>4.690575025851956</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.195495648164081</v>
+        <v>2.117372442161138</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4.83293738105551</v>
+        <v>4.137904221464684</v>
       </c>
     </row>
     <row r="16">
@@ -1035,7 +1031,7 @@
         <v>2.528005092842746</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6110315784035342</v>
+        <v>0.6110315784035335</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.555571112590723</v>
@@ -1047,7 +1043,7 @@
         <v>1.197927289459901</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1881934438299986</v>
+        <v>0.1881934438299984</v>
       </c>
     </row>
     <row r="17">
@@ -1058,28 +1054,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6557580022957415</v>
+        <v>0.7117893927481996</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9154749967444842</v>
+        <v>0.5251730812920231</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2532405062814462</v>
+        <v>-0.5531088467980372</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.972654557903031</v>
+        <v>-2.526939771813021</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.03839869307822778</v>
+        <v>0.02048635608810739</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05802701123921385</v>
+        <v>0.0584471220154018</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2735368094329061</v>
+        <v>-0.300540416738561</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5409967709270688</v>
+        <v>-0.5316839485558918</v>
       </c>
     </row>
     <row r="18">
@@ -1090,28 +1086,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.39396521927615</v>
+        <v>10.17974387388307</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.63533688793832</v>
+        <v>10.04315104667748</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.421660491327598</v>
+        <v>5.953377403538634</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.249396889837406</v>
+        <v>3.50864160040522</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6.221938063144737</v>
+        <v>5.930174280783869</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4.432336449158821</v>
+        <v>4.228360334485542</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8.102996404959942</v>
+        <v>8.135886142957814</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.159835838972823</v>
+        <v>2.136045155720405</v>
       </c>
     </row>
     <row r="19">
@@ -1135,7 +1131,7 @@
         <v>1.318289172962256</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1.326411789041842</v>
+        <v>1.326411789041839</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9829832986713448</v>
@@ -1147,7 +1143,7 @@
         <v>0.3575969275860745</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.5439534987267854</v>
+        <v>0.5439534987267842</v>
       </c>
     </row>
     <row r="20">
@@ -1158,28 +1154,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.114556905306602</v>
+        <v>-1.018555811302467</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.642074419027516</v>
+        <v>-2.244966687867877</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.144823963757616</v>
+        <v>-1.950390803628061</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-1.797716660186487</v>
+        <v>-1.391296553406871</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5748970794454463</v>
+        <v>-0.4590979447553634</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.510314502247544</v>
+        <v>-0.4741264326936778</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.416532126820832</v>
+        <v>-0.4160859980731432</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.506608549369175</v>
+        <v>-0.4863033228492293</v>
       </c>
     </row>
     <row r="21">
@@ -1190,28 +1186,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.713094778157466</v>
+        <v>4.638509892272705</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.013000674995224</v>
+        <v>5.028092527342254</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.475810343773071</v>
+        <v>4.957404886334404</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.133399756190088</v>
+        <v>4.176892193467604</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>7.87043456280648</v>
+        <v>7.663887754860076</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.382464316924759</v>
+        <v>2.536367753572143</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.600389458233619</v>
+        <v>2.394925922453638</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.477775480726957</v>
+        <v>3.375997894065945</v>
       </c>
     </row>
     <row r="22">
@@ -1235,7 +1231,7 @@
         <v>3.494392919975885</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.271561401317206</v>
+        <v>4.271561401317205</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8759910637694061</v>
@@ -1258,28 +1254,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3373106670776062</v>
+        <v>-0.389956576607387</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6505201054897295</v>
+        <v>0.7201137568558237</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.411765969268431</v>
+        <v>1.424696668828837</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.269907661991728</v>
+        <v>2.198678706732093</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2480422462250474</v>
+        <v>-0.2627533762646096</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1799021382326124</v>
+        <v>0.2653168620949007</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3430582772838941</v>
+        <v>0.2883993100347791</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.4844335472486461</v>
+        <v>0.4899551685803842</v>
       </c>
     </row>
     <row r="24">
@@ -1290,28 +1286,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.03189873868615</v>
+        <v>3.044286539187826</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.339509925179736</v>
+        <v>4.757039820280786</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.873891751422267</v>
+        <v>5.795018074215427</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.78091924342219</v>
+        <v>6.501826424558662</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>3.334057809741125</v>
+        <v>3.202982894936434</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>4.76140081204078</v>
+        <v>5.308448934688039</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>4.191993517682369</v>
+        <v>3.884915055693139</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>3.185998330537033</v>
+        <v>3.105747505085527</v>
       </c>
     </row>
     <row r="25">
@@ -1358,28 +1354,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.209288600307931</v>
+        <v>-2.017297731861322</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.755008870504223</v>
+        <v>-1.740239476287315</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.05935427162485145</v>
+        <v>-0.08996907360162233</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.034900389303186</v>
+        <v>0.8059263203014804</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4402126732613409</v>
+        <v>-0.426375969879905</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3599371714741055</v>
+        <v>-0.3545658154771975</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02387851175043636</v>
+        <v>-0.04029695972623962</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2039638226848178</v>
+        <v>0.1725687891192628</v>
       </c>
     </row>
     <row r="27">
@@ -1390,28 +1386,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.811019384823783</v>
+        <v>1.861938387620663</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.228916151583068</v>
+        <v>2.264212971860363</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.005352850552379</v>
+        <v>4.01535184442038</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.02002629965072</v>
+        <v>4.944547179487641</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6420366068856287</v>
+        <v>0.6692202887984079</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7540061223830964</v>
+        <v>0.8277016764790199</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.719040393564883</v>
+        <v>1.638273385085734</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.120383968044914</v>
+        <v>2.103599184033939</v>
       </c>
     </row>
     <row r="28">
@@ -1435,7 +1431,7 @@
         <v>2.302522430252814</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1.569286931561417</v>
+        <v>1.569286931561416</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6393527593106225</v>
@@ -1447,7 +1443,7 @@
         <v>0.7497959901955056</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.4635564402760842</v>
+        <v>0.4635564402760839</v>
       </c>
     </row>
     <row r="29">
@@ -1458,28 +1454,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6969752551687676</v>
+        <v>0.620277893478245</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.109791316330972</v>
+        <v>1.050835733981978</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.312850195866196</v>
+        <v>1.37015293029022</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5579031842399831</v>
+        <v>0.5127373150501389</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2534966900198985</v>
+        <v>0.2146194672094519</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2777599901766207</v>
+        <v>0.2604964389333686</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3805194156248877</v>
+        <v>0.3969239292279377</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.140490924029313</v>
+        <v>0.1239552916844722</v>
       </c>
     </row>
     <row r="30">
@@ -1490,28 +1486,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.50853639968064</v>
+        <v>2.383889648058115</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.19829101385862</v>
+        <v>3.120414475956236</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.245337593412335</v>
+        <v>3.298716061885155</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.531864458226754</v>
+        <v>2.580337447950532</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.242778745808538</v>
+        <v>1.211786935553599</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.071651771986968</v>
+        <v>1.060154156845954</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.213801576522358</v>
+        <v>1.239361322761981</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.8698166847418334</v>
+        <v>0.8783130518880363</v>
       </c>
     </row>
     <row r="31">
